--- a/data_voor_swing/gebiedsdefinities/deelgemeente.xlsx
+++ b/data_voor_swing/gebiedsdefinities/deelgemeente.xlsx
@@ -27836,17 +27836,17 @@
       </c>
       <c r="B1373" t="inlineStr">
         <is>
-          <t>99992ONBE</t>
+          <t>99999ONBE</t>
         </is>
       </c>
       <c r="C1373" t="inlineStr">
         <is>
-          <t>Niet te lokaliseren - Brussel</t>
+          <t>Buiten Vlaanderen en Brussel</t>
         </is>
       </c>
       <c r="D1373" t="inlineStr">
         <is>
-          <t>Niet te lokaliseren - Brussel (Dg.)</t>
+          <t>Buiten Vlaanderen en Brussel</t>
         </is>
       </c>
     </row>
@@ -27856,17 +27856,17 @@
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>99991ONBE</t>
+          <t>99992ONBE</t>
         </is>
       </c>
       <c r="C1374" t="inlineStr">
         <is>
-          <t>Niet te lokaliseren - Vlaanderen</t>
+          <t>Niet te lokaliseren - Brussel</t>
         </is>
       </c>
       <c r="D1374" t="inlineStr">
         <is>
-          <t>Niet te lokaliseren - Vlaanderen (Dg.)</t>
+          <t>Niet te lokaliseren - Brussel (Dg.)</t>
         </is>
       </c>
     </row>
@@ -27876,17 +27876,17 @@
       </c>
       <c r="B1375" t="inlineStr">
         <is>
-          <t>99999ONBE</t>
+          <t>99991ONBE</t>
         </is>
       </c>
       <c r="C1375" t="inlineStr">
         <is>
-          <t>Niet te lokaliseren</t>
+          <t>Niet te lokaliseren - Vlaanderen</t>
         </is>
       </c>
       <c r="D1375" t="inlineStr">
         <is>
-          <t>Niet te lokaliseren (Dg.)</t>
+          <t>Niet te lokaliseren - Vlaanderen (Dg.)</t>
         </is>
       </c>
     </row>
